--- a/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
+++ b/InputData/trans/ECpV/Embedded Carbon per Vehicle.xlsx
@@ -1,41 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipP\InputData\trans\ECpV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murielle.gagnebin\Nextcloud\EPS_Transport\Murielle\EcPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4AE79-B1D8-4246-A41F-5C9932A20F35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="23955" windowHeight="13110"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="PE 8-8" sheetId="4" r:id="rId2"/>
+    <sheet name="Calculation BEV-PHEV" sheetId="4" r:id="rId2"/>
     <sheet name="Data from BNVP" sheetId="5" r:id="rId3"/>
     <sheet name="ECpV-psgr" sheetId="2" r:id="rId4"/>
     <sheet name="ECpV-frgt" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
-  <si>
-    <t>PE International</t>
-  </si>
-  <si>
-    <t>Live Cycle CO2e Assessment of Low Carbon Cars 2020-2030</t>
-  </si>
-  <si>
-    <t>http://www.lowcvp.org.uk/assets/reports/CONFERENCE%202013%20Final%20Report_Lifecycle%20CO2%20Assessment%20of%20Low%20Carbon%20Cars%202020-2030_PEJuly2013.pdf</t>
-  </si>
-  <si>
-    <t>Page 70, Table 8-8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>ECpV Embedded Carbon per Vehicle</t>
   </si>
@@ -46,39 +43,6 @@
     <t>passenger LDVs</t>
   </si>
   <si>
-    <t>Values in tons CO2e</t>
-  </si>
-  <si>
-    <t>Component production</t>
-  </si>
-  <si>
-    <t>Vehicle assembly</t>
-  </si>
-  <si>
-    <t>Bioethanol production, WTT</t>
-  </si>
-  <si>
-    <t>Gasoline production, WTT</t>
-  </si>
-  <si>
-    <t>Electricity production, WTW</t>
-  </si>
-  <si>
-    <t>Use phase, gasoline TTW</t>
-  </si>
-  <si>
-    <t>Use phase, bioethanol TTW</t>
-  </si>
-  <si>
-    <t>End of life</t>
-  </si>
-  <si>
-    <t>ICEV</t>
-  </si>
-  <si>
-    <t>HEV</t>
-  </si>
-  <si>
     <t>PHEV</t>
   </si>
   <si>
@@ -181,12 +145,6 @@
     <t>hydrogen vehicle</t>
   </si>
   <si>
-    <t>We don't have data for hydrogen fuel cell vehicles, so we assume</t>
-  </si>
-  <si>
-    <t>their embedded carbon is similar to that of PHEVs.</t>
-  </si>
-  <si>
     <t>Embedded Carbon (metric tons CO2e/vehicle</t>
   </si>
   <si>
@@ -197,12 +155,75 @@
   </si>
   <si>
     <t>Start Year</t>
+  </si>
+  <si>
+    <t>https://greet.es.anl.gov/index.php</t>
+  </si>
+  <si>
+    <t>GREET® Model</t>
+  </si>
+  <si>
+    <t>Argonne National Laboratory</t>
+  </si>
+  <si>
+    <t>Embedded carbon for battery production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly et al. </t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11027-019-09869-2</t>
+  </si>
+  <si>
+    <t>Globally regional life cycle analysis of automotive lithium-ion nickel manganese cobalt batteries</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Production site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded carbon BEV (w/o battery) </t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>BCbVT file</t>
+  </si>
+  <si>
+    <t>GREET model</t>
+  </si>
+  <si>
+    <t>Kelly et al.</t>
+  </si>
+  <si>
+    <t>Average battery size (kWh)</t>
+  </si>
+  <si>
+    <t>Values in tons CO2e if not specified</t>
+  </si>
+  <si>
+    <t>Embedded carbon for battery production (kg CO2e/kWh)</t>
+  </si>
+  <si>
+    <t>Embedded carbon per vehicle (max)</t>
+  </si>
+  <si>
+    <t>Embedded carbon per vehicle (min)</t>
+  </si>
+  <si>
+    <t>Average embedded carbon per vehicle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -294,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -338,6 +359,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -359,7 +421,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -372,12 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -395,19 +451,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="2"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,7 +512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -498,6 +587,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -533,6 +639,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,291 +831,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>56</v>
+      <c r="B15" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
+      <c r="A18" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
+      <c r="A19" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22">
+        <v>65</v>
+      </c>
+      <c r="C3" s="22">
+        <v>100</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="22">
+        <v>40</v>
+      </c>
+      <c r="C6" s="22">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>5.04</v>
-      </c>
-      <c r="C3">
-        <v>1.4</v>
-      </c>
-      <c r="D3">
-        <v>0.51</v>
-      </c>
-      <c r="E3">
-        <v>5.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>18.18</v>
-      </c>
-      <c r="H3">
-        <v>0.02</v>
-      </c>
-      <c r="I3">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>6.11</v>
-      </c>
-      <c r="C4">
-        <v>1.4</v>
-      </c>
-      <c r="D4">
-        <v>0.35</v>
-      </c>
-      <c r="E4">
-        <v>3.44</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>12.47</v>
-      </c>
-      <c r="H4">
-        <v>0.01</v>
-      </c>
-      <c r="I4">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>6.61</v>
-      </c>
-      <c r="C5">
-        <v>1.4</v>
-      </c>
-      <c r="D5">
-        <v>0.18</v>
-      </c>
-      <c r="E5">
-        <v>1.81</v>
-      </c>
-      <c r="F5">
-        <v>4.57</v>
-      </c>
-      <c r="G5">
-        <v>6.55</v>
-      </c>
-      <c r="H5">
-        <v>0.01</v>
-      </c>
-      <c r="I5">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>9.56</v>
-      </c>
-      <c r="C6">
-        <v>1.4</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>13.19</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.27</v>
+      <c r="D6" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C7" s="22">
+        <v>6.3</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="22">
+        <f>B$7+B$6*$C$3/1000</f>
+        <v>9.1</v>
+      </c>
+      <c r="C8" s="22">
+        <f>C$7+C$6*$C$3/1000</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="22">
+        <f>B$7+B$6*$B$3/1000</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="C9" s="28">
+        <f>C$7+C$6*$B$3/1000</f>
+        <v>7.0149999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="29">
+        <f>(B9+B8)/2</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="C10" s="30">
+        <f>(C9+C8)/2</f>
+        <v>7.2074999999999996</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
@@ -1001,83 +1113,83 @@
     <col min="12" max="13" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="16" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>47</v>
+      <c r="B1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="10">
-        <v>50758.840541774327</v>
-      </c>
-      <c r="C2" s="10">
-        <v>80512.080109999981</v>
-      </c>
-      <c r="D2" s="10">
-        <v>703780</v>
-      </c>
-      <c r="E2" s="10">
-        <v>206127.38518562954</v>
-      </c>
-      <c r="F2" s="17">
-        <v>94933107.191416278</v>
-      </c>
-      <c r="G2" s="17">
-        <v>94933107.191416278</v>
-      </c>
-      <c r="H2" s="10">
-        <v>3660659.6603373885</v>
-      </c>
-      <c r="I2" s="10">
-        <v>3660659.6603373885</v>
-      </c>
-      <c r="J2" s="10">
-        <v>43927.915924048662</v>
-      </c>
-      <c r="K2" s="10">
-        <v>14642638.641349554</v>
-      </c>
-      <c r="L2" s="10">
-        <v>14759.423945652174</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="8">
+        <v>53908.855010931919</v>
+      </c>
+      <c r="C2" s="8">
+        <v>53908.855010931919</v>
+      </c>
+      <c r="D2" s="8">
+        <v>613692.86438700813</v>
+      </c>
+      <c r="E2" s="8">
+        <v>170546.495625432</v>
+      </c>
+      <c r="F2" s="16">
+        <v>263229662.22278959</v>
+      </c>
+      <c r="G2" s="16">
+        <v>263229662.22278959</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5899534.611906955</v>
+      </c>
+      <c r="I2" s="8">
+        <v>5899534.611906955</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>23598138.44762782</v>
+      </c>
+      <c r="L2" s="8">
+        <v>18180.647304663158</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1085,36 +1197,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10">
-        <v>38287.706053517766</v>
-      </c>
-      <c r="C3" s="10">
-        <v>65223.591570561439</v>
-      </c>
-      <c r="D3" s="10">
-        <v>489601.85316835809</v>
-      </c>
-      <c r="E3" s="10">
-        <v>135407.27428151103</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8">
+        <v>32912.336925844473</v>
+      </c>
+      <c r="C3" s="8">
+        <v>32912.336925844473</v>
+      </c>
+      <c r="D3" s="8">
+        <v>320955.29752787802</v>
+      </c>
+      <c r="E3" s="8">
+        <v>104121.73889443632</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
         <v>0</v>
       </c>
       <c r="L3">
@@ -1126,40 +1238,40 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="19">
-        <v>30882.93891032293</v>
-      </c>
-      <c r="C4" s="10">
-        <v>58361.792809999999</v>
-      </c>
-      <c r="D4" s="10">
-        <v>480637.41599999997</v>
-      </c>
-      <c r="E4" s="10">
-        <v>132928.01486984815</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>30000</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="19">
-        <v>8980</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="15">
+        <v>28619.423413777804</v>
+      </c>
+      <c r="C4" s="8">
+        <v>28619.423413777804</v>
+      </c>
+      <c r="D4" s="8">
+        <v>260059.86266628545</v>
+      </c>
+      <c r="E4" s="8">
+        <v>132921.36880140807</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>9651.84</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1167,36 +1279,36 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="10">
-        <v>32733.505566166878</v>
-      </c>
-      <c r="C5" s="10">
-        <v>64029.370624000003</v>
-      </c>
-      <c r="D5" s="10">
-        <v>480637.41599999997</v>
-      </c>
-      <c r="E5" s="19">
-        <v>132928.01486984815</v>
-      </c>
-      <c r="F5" s="17">
-        <v>64833333.333333336</v>
-      </c>
-      <c r="G5" s="17">
-        <v>64833333.333333336</v>
-      </c>
-      <c r="H5" s="10">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>42015.749267035499</v>
+      </c>
+      <c r="C5" s="8">
+        <v>42015.749267035499</v>
+      </c>
+      <c r="D5" s="8">
+        <v>260059.86266628545</v>
+      </c>
+      <c r="E5" s="15">
+        <v>132921.36880140807</v>
+      </c>
+      <c r="F5" s="16">
+        <v>111546791.20430811</v>
+      </c>
+      <c r="G5" s="16">
+        <v>111546791.20430811</v>
+      </c>
+      <c r="H5" s="8">
         <v>2500000</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>2500000</v>
       </c>
-      <c r="J5" s="10">
-        <v>30000</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
         <v>10000000</v>
       </c>
       <c r="L5">
@@ -1208,36 +1320,36 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="10">
-        <v>38021.991142086437</v>
-      </c>
-      <c r="C6" s="10">
-        <v>54775.354912666604</v>
-      </c>
-      <c r="D6" s="10">
-        <v>558290.08404758247</v>
-      </c>
-      <c r="E6" s="10">
-        <v>154404.11029915701</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43111.812291392947</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43111.812291392947</v>
+      </c>
+      <c r="D6" s="8">
+        <v>266844.03299671033</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
         <v>0</v>
       </c>
       <c r="L6">
@@ -1249,36 +1361,36 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="10">
-        <v>39464.208493999999</v>
-      </c>
-      <c r="C7" s="10">
-        <v>72501.771649563496</v>
-      </c>
-      <c r="D7" s="10">
-        <v>614189.4477763311</v>
-      </c>
-      <c r="E7" s="10">
-        <v>150517.12184581585</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
+        <v>35</v>
+      </c>
+      <c r="B7" s="8">
+        <v>30050.394584466696</v>
+      </c>
+      <c r="C7" s="8">
+        <v>30050.394584466696</v>
+      </c>
+      <c r="D7" s="8">
+        <v>273062.85579959973</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>0</v>
       </c>
       <c r="L7">
@@ -1290,37 +1402,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="10">
-        <v>71671.802858802301</v>
-      </c>
-      <c r="C8" s="10">
-        <v>82293.84992932812</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1115442.7441684157</v>
-      </c>
-      <c r="E8" s="10">
-        <v>170845.9414873973</v>
-      </c>
-      <c r="F8" s="17">
-        <v>150462425.18688756</v>
-      </c>
-      <c r="G8" s="17">
-        <v>150462425.18688756</v>
-      </c>
-      <c r="H8" s="10">
-        <v>5801893.0020650728</v>
-      </c>
-      <c r="I8" s="10">
-        <v>5801893.0020650728</v>
-      </c>
-      <c r="J8" s="10">
-        <v>69622.716024780879</v>
-      </c>
-      <c r="K8" s="10">
-        <v>23207572.008260291</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="8">
+        <v>79552.238805970163</v>
+      </c>
+      <c r="C8" s="8">
+        <v>79552.238805970163</v>
+      </c>
+      <c r="D8" s="8">
+        <v>776003.47182830132</v>
+      </c>
+      <c r="E8" s="8">
+        <v>251672.11480867941</v>
+      </c>
+      <c r="F8" s="16">
+        <v>332849123.11488181</v>
+      </c>
+      <c r="G8" s="16">
+        <v>332849123.11488181</v>
+      </c>
+      <c r="H8" s="8">
+        <v>7459854.2800132716</v>
+      </c>
+      <c r="I8" s="8">
+        <v>7459854.2800132716</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>29839417.120053086</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1335,15 +1447,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
@@ -1353,116 +1467,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>51</v>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="9">
-        <f>SUM('PE 8-8'!B6:C6)</f>
-        <v>10.96</v>
-      </c>
-      <c r="C2" s="9">
-        <f>SUM('PE 8-8'!B3:C3)</f>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="D2" s="9">
-        <f>SUM('PE 8-8'!B3:C3)</f>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="E2" s="9">
-        <f>SUM('PE 8-8'!B3:C3)</f>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="F2" s="9">
-        <f>SUM('PE 8-8'!B5:C5)</f>
-        <v>8.01</v>
-      </c>
-      <c r="G2" s="9">
-        <f>SUM('PE 8-8'!B3:C3)</f>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="H2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <f>'Calculation BEV-PHEV'!B10</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="F2" s="7">
+        <f>'Calculation BEV-PHEV'!C10</f>
+        <v>7.2074999999999996</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="H2" s="7">
         <f>F2</f>
-        <v>8.01</v>
+        <v>7.2074999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
         <f>B2*('Data from BNVP'!D2/'Data from BNVP'!B2)</f>
-        <v>151.96227332363668</v>
-      </c>
-      <c r="C3" s="9">
+        <v>95.624736600425024</v>
+      </c>
+      <c r="C3" s="7">
         <f>C2*('Data from BNVP'!D3/'Data from BNVP'!B3)</f>
-        <v>82.351131979465606</v>
-      </c>
-      <c r="D3" s="9">
+        <v>57.535758086126641</v>
+      </c>
+      <c r="D3" s="7">
         <f>D2*('Data from BNVP'!D4/'Data from BNVP'!B4)</f>
-        <v>100.22702075175117</v>
-      </c>
-      <c r="E3" s="9">
+        <v>53.612302650109449</v>
+      </c>
+      <c r="E3" s="7">
         <f>E2*('Data from BNVP'!D5/'Data from BNVP'!B5)</f>
-        <v>94.560753744606117</v>
-      </c>
-      <c r="F3" s="9">
+        <v>36.518524993552816</v>
+      </c>
+      <c r="F3" s="7">
         <f>F2*('Data from BNVP'!D6/'Data from BNVP'!B6)</f>
-        <v>117.61360830656756</v>
-      </c>
-      <c r="G3" s="9">
+        <v>44.611401506954564</v>
+      </c>
+      <c r="G3" s="7">
         <f>G2*('Data from BNVP'!D7/'Data from BNVP'!B7)</f>
-        <v>100.22702075175116</v>
-      </c>
-      <c r="H3" s="9">
+        <v>53.612302650109449</v>
+      </c>
+      <c r="H3" s="7">
         <f>F3</f>
-        <v>117.61360830656756</v>
+        <v>44.611401506954564</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
         <f t="shared" ref="B4:D5" si="0">$E4</f>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="C4" s="9">
+        <v>22995.78361835852</v>
+      </c>
+      <c r="C4" s="7">
         <f t="shared" si="0"/>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="D4" s="9">
+        <v>22995.78361835852</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="E4" s="9">
+        <v>22995.78361835852</v>
+      </c>
+      <c r="E4" s="7">
         <f>D2*('Data from BNVP'!F5/'Data from BNVP'!B4)</f>
-        <v>13519.654585953418</v>
+        <v>22995.78361835852</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1470,30 +1580,30 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <f>$E4</f>
-        <v>13519.654585953418</v>
+        <v>22995.78361835852</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="9">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
         <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="C5" s="9">
+        <v>515.38424750021818</v>
+      </c>
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="D5" s="9">
+        <v>515.38424750021818</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="E5" s="9">
+        <v>515.38424750021818</v>
+      </c>
+      <c r="E5" s="7">
         <f>D2*('Data from BNVP'!H5/'Data from BNVP'!B4)</f>
-        <v>521.32344161774108</v>
+        <v>515.38424750021818</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1501,30 +1611,30 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f>$E5</f>
-        <v>521.32344161774108</v>
+        <v>515.38424750021818</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
         <f t="shared" ref="B6:D6" si="1">$E6</f>
-        <v>6.2558812994128923</v>
-      </c>
-      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
         <f t="shared" si="1"/>
-        <v>6.2558812994128923</v>
-      </c>
-      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>6.2558812994128923</v>
-      </c>
-      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <f>D2*('Data from BNVP'!J5/'Data from BNVP'!B4)</f>
-        <v>6.2558812994128923</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1532,25 +1642,25 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f>$E6</f>
-        <v>6.2558812994128923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
         <f>B2*('Data from BNVP'!L2/'Data from BNVP'!B2)</f>
-        <v>3.1868987691162349</v>
+        <v>2.8328822292404778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f>D2*('Data from BNVP'!L4/'Data from BNVP'!B4)</f>
-        <v>1.8725938022909256</v>
+        <v>1.9897625181570027</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1571,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1579,7 +1689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="3" width="24.28515625" customWidth="1"/>
@@ -1589,116 +1699,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>51</v>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!C2/'Data from BNVP'!B2)</f>
-        <v>17.384408087087369</v>
-      </c>
-      <c r="C2" s="9">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="C2" s="7">
         <f>'ECpV-psgr'!C2*('Data from BNVP'!C3/'Data from BNVP'!B3)</f>
-        <v>10.970621460771049</v>
-      </c>
-      <c r="D2" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="D2" s="7">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!C4/'Data from BNVP'!B4)</f>
-        <v>12.170148274676293</v>
-      </c>
-      <c r="E2" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="E2" s="7">
         <f>'ECpV-psgr'!E2*('Data from BNVP'!C5/'Data from BNVP'!B5)</f>
-        <v>12.597158162148119</v>
-      </c>
-      <c r="F2" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="F2" s="7">
         <f>'ECpV-psgr'!F2*('Data from BNVP'!C6/'Data from BNVP'!B6)</f>
-        <v>11.539390223170289</v>
-      </c>
-      <c r="G2" s="9">
+        <v>7.2074999999999996</v>
+      </c>
+      <c r="G2" s="7">
         <f>'ECpV-psgr'!G2*('Data from BNVP'!C7/'Data from BNVP'!B7)</f>
-        <v>11.831262484186816</v>
-      </c>
-      <c r="H2" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="H2" s="7">
         <f>F2</f>
-        <v>11.539390223170289</v>
+        <v>7.2074999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7">
         <f>'ECpV-psgr'!B2*('Data from BNVP'!E2/'Data from BNVP'!B2)</f>
-        <v>44.507638817620816</v>
-      </c>
-      <c r="C3" s="9">
+        <v>26.574308858222281</v>
+      </c>
+      <c r="C3" s="7">
         <f>'ECpV-psgr'!C2*('Data from BNVP'!E3/'Data from BNVP'!B3)</f>
-        <v>22.775531267243728</v>
-      </c>
-      <c r="D3" s="9">
+        <v>18.665288364703745</v>
+      </c>
+      <c r="D3" s="7">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!E4/'Data from BNVP'!B4)</f>
-        <v>27.719396079745398</v>
-      </c>
-      <c r="E3" s="9">
+        <v>27.402231854565073</v>
+      </c>
+      <c r="E3" s="7">
         <f>'ECpV-psgr'!E2*('Data from BNVP'!E5/'Data from BNVP'!B5)</f>
-        <v>26.152298721302735</v>
-      </c>
-      <c r="F3" s="9">
+        <v>18.665288364703745</v>
+      </c>
+      <c r="F3" s="7">
         <f>'ECpV-psgr'!F2*('Data from BNVP'!E6/'Data from BNVP'!B6)</f>
-        <v>32.527936763607912</v>
-      </c>
-      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <f>'ECpV-psgr'!G2*('Data from BNVP'!E7/'Data from BNVP'!B7)</f>
-        <v>24.562262913100806</v>
-      </c>
-      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
         <f>F3</f>
-        <v>32.527936763607912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
         <f t="shared" ref="B4:D6" si="0">$E4</f>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="C4" s="9">
+        <v>22995.78361835852</v>
+      </c>
+      <c r="C4" s="7">
         <f t="shared" si="0"/>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="D4" s="9">
+        <v>22995.78361835852</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
-        <v>13519.654585953418</v>
-      </c>
-      <c r="E4" s="9">
+        <v>22995.78361835852</v>
+      </c>
+      <c r="E4" s="7">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!G5/'Data from BNVP'!B4)</f>
-        <v>13519.654585953418</v>
+        <v>22995.78361835852</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1706,30 +1816,30 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <f>$E4</f>
-        <v>13519.654585953418</v>
+        <v>22995.78361835852</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="9">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
         <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="C5" s="9">
+        <v>515.38424750021818</v>
+      </c>
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="D5" s="9">
+        <v>515.38424750021818</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>521.32344161774108</v>
-      </c>
-      <c r="E5" s="9">
+        <v>515.38424750021818</v>
+      </c>
+      <c r="E5" s="7">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!I5/'Data from BNVP'!B4)</f>
-        <v>521.32344161774108</v>
+        <v>515.38424750021818</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1737,30 +1847,30 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f>$E5</f>
-        <v>521.32344161774108</v>
+        <v>515.38424750021818</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7">
         <f t="shared" si="0"/>
-        <v>2085.2937664709643</v>
-      </c>
-      <c r="C6" s="9">
+        <v>2061.5369900008727</v>
+      </c>
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>2085.2937664709643</v>
-      </c>
-      <c r="D6" s="9">
+        <v>2061.5369900008727</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
-        <v>2085.2937664709643</v>
-      </c>
-      <c r="E6" s="9">
+        <v>2061.5369900008727</v>
+      </c>
+      <c r="E6" s="7">
         <f>'ECpV-psgr'!D2*('Data from BNVP'!K5/'Data from BNVP'!B4)</f>
-        <v>2085.2937664709643</v>
+        <v>2061.5369900008727</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1768,22 +1878,22 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <f>$E6</f>
-        <v>2085.2937664709643</v>
+        <v>2061.5369900008727</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="11">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
         <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
       <c r="E7">
